--- a/data/results/stanza_lemmas.xlsx
+++ b/data/results/stanza_lemmas.xlsx
@@ -31171,7 +31171,7 @@
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>Treterówna</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr">
